--- a/data/trans_bre/P15A-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P15A-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.1172026186576632</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.134430382639018</v>
+        <v>1.134430382639019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1657810718096187</v>
@@ -649,7 +649,7 @@
         <v>-0.04114665887082705</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4777472321191089</v>
+        <v>0.4777472321191092</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.547528559190201</v>
+        <v>-2.44011714929281</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8518879697628884</v>
+        <v>-1.023140018505635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.554559002190385</v>
+        <v>-1.563177299608146</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.566318971215282</v>
+        <v>-0.7422806208512288</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5616977623054062</v>
+        <v>-0.5523801327836833</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3154000125704202</v>
+        <v>-0.3775096526064092</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4307587765441387</v>
+        <v>-0.4234851068017779</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2292887798841854</v>
+        <v>-0.3046800414189034</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.120790142823549</v>
+        <v>1.142445663026615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.789853921413069</v>
+        <v>1.713090697210417</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.337626893670194</v>
+        <v>1.293351973885182</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.342901045332044</v>
+        <v>3.051132377178046</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5558974306247105</v>
+        <v>0.5267998454798519</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.278752611824178</v>
+        <v>1.285267440219975</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6464008802866138</v>
+        <v>0.643998612564071</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.36442025803211</v>
+        <v>1.937365646895012</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.4356799515275692</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6616448569450317</v>
+        <v>0.6616448569450321</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.09855336077324563</v>
@@ -749,7 +749,7 @@
         <v>-0.1653391549217359</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2961397656301737</v>
+        <v>0.2961397656301739</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.77649153430826</v>
+        <v>-1.81012664045465</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.259593905229009</v>
+        <v>-2.218997280361731</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.957264880507659</v>
+        <v>-1.897715078770526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6300060369899034</v>
+        <v>-0.691893021761893</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4445562988248365</v>
+        <v>-0.4544380441309048</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5355316575135034</v>
+        <v>-0.5178115184774427</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5771050784990486</v>
+        <v>-0.5709341790091704</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.238217656808496</v>
+        <v>-0.2404343813406459</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.172911230118137</v>
+        <v>1.117592687087306</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8545103447117169</v>
+        <v>0.8967831122303717</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9759416002476534</v>
+        <v>1.012803199528788</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.928169750628504</v>
+        <v>1.894290163566458</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4895267640566539</v>
+        <v>0.4839790222143048</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3724305881959929</v>
+        <v>0.3805428483265489</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5472893201304694</v>
+        <v>0.5310988874423772</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.235760848797204</v>
+        <v>1.25013131063283</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.2076363521506523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.03491579283652242</v>
+        <v>-0.03491579283652138</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3488449154172305</v>
@@ -849,7 +849,7 @@
         <v>0.07637617824437871</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.01382097783866051</v>
+        <v>-0.0138209778386601</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.938074450945825</v>
+        <v>-2.929139205668503</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.087506141928108</v>
+        <v>-1.110038682220149</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.486241015499033</v>
+        <v>-1.334445775424188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.523294333809582</v>
+        <v>-1.45531088643859</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6202577820451501</v>
+        <v>-0.607788695621188</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3060934354512772</v>
+        <v>-0.3268196988418128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.445595457682047</v>
+        <v>-0.3883382675965525</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4236678553715233</v>
+        <v>-0.4270521651215453</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.15963825615609</v>
+        <v>0.1060105632626916</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.233399093289777</v>
+        <v>2.148635001678549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.988474888070901</v>
+        <v>1.870053825208543</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.094105799271332</v>
+        <v>1.203002485390519</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09967995274777436</v>
+        <v>0.0529085357891672</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.158184086957629</v>
+        <v>1.067878682655434</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.032394978677409</v>
+        <v>1.03694733007709</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6299713165248808</v>
+        <v>0.7285768894715309</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.3822885299496447</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.3445294576856689</v>
+        <v>-0.3445294576856692</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4211299922710489</v>
@@ -949,7 +949,7 @@
         <v>-0.1820857458274106</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1487022607239505</v>
+        <v>-0.1487022607239506</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.0568509694383</v>
+        <v>-5.257736562889566</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.954913252202177</v>
+        <v>-3.649596094917124</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.101981720746131</v>
+        <v>-2.142016840491295</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.994799153647631</v>
+        <v>-2.212150968166791</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7246221842771693</v>
+        <v>-0.7318229751133368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7148654252357158</v>
+        <v>-0.6940992195438299</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7101277592093908</v>
+        <v>-0.7295541309503291</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5858078822289474</v>
+        <v>-0.5959663875575816</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6452555461940038</v>
+        <v>0.7782428790737531</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.403040482577749</v>
+        <v>1.517134044780583</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.452926332542612</v>
+        <v>1.354686561552049</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.007550437838802</v>
+        <v>0.9415004816301012</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2743488279249804</v>
+        <v>0.2580899022095428</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5846088872554897</v>
+        <v>0.7073282755739455</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.39250567748264</v>
+        <v>1.241681870136727</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7359775349617478</v>
+        <v>0.6146302471663551</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.955944712447641</v>
+        <v>-1.904950389341298</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9259784217109391</v>
+        <v>-0.9740643380972974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8743986668541253</v>
+        <v>-1.022900872613461</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4456265714776584</v>
+        <v>-0.4608939244359144</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4452509184126103</v>
+        <v>-0.4372383584316977</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2862169452075731</v>
+        <v>-0.300864731057035</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2911421902540347</v>
+        <v>-0.3288581024242724</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1688041615837017</v>
+        <v>-0.1638347146551382</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.2100315394306586</v>
+        <v>-0.1639300826783078</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6925234071944346</v>
+        <v>0.6345224140975175</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5982106308149496</v>
+        <v>0.5793094567708218</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.032430215798733</v>
+        <v>0.9363549893047656</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.06060044588141165</v>
+        <v>-0.04393457763825827</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2832865465604125</v>
+        <v>0.2629401937949747</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2662055772268748</v>
+        <v>0.2492005785223628</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5337198583109719</v>
+        <v>0.495955426296449</v>
       </c>
     </row>
     <row r="19">
